--- a/Assets/Excel/CelestialBodyInfo.xlsx
+++ b/Assets/Excel/CelestialBodyInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\SolarSystem\Assets\Art\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\SolarSystem\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C60C6A-AB31-4257-A248-6BE59029E33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0DA9BD-5D32-4604-B20D-48062E91FFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="4200" windowWidth="19155" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="4110" windowWidth="19155" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CelestialBodyInfo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Sun</t>
   </si>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>海王星是太阳系中第八个行星，它的直径约为4.9万公里，比地球略小一些。它的大气层中也有大量的氢和氦气，还有一些甲烷。海王星的轨道也比较斜，它的表面上也有一些冰晶和岩石。</t>
+  </si>
+  <si>
+    <t>Moon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -596,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -893,6 +901,26 @@
         <v>44</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E14">
+        <v>15927.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>151.86000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
